--- a/Akan/Ananse1/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse1/AkanEnglishAligned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461B9B00-AE50-44F8-8364-78C329D2FD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DAB369-7222-4E9B-A1F9-B52B60A8A672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37485" yWindow="6495" windowWidth="17145" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>ENGLISH</t>
   </si>
   <si>
-    <t>Te’ nse se, nse se o</t>
-  </si>
-  <si>
     <t>We do not really mean, we do not really mean (that what we are going to say is true).</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>This my story, which I have told, if it be sweet or if it be not sweet, take some of it as truth, and the rest you may praise me for.</t>
+  </si>
+  <si>
+    <t>Ye’ nse se, nse se o</t>
   </si>
 </sst>
 </file>
@@ -969,7 +969,7 @@
   <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B96"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,762 +988,762 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
